--- a/artfynd/A 14927-2022.xlsx
+++ b/artfynd/A 14927-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16879685</v>
+        <v>74601266</v>
       </c>
       <c r="B2" t="n">
-        <v>9302</v>
+        <v>95519</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,46 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101246</v>
+        <v>221945</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lucanus cervus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Överum, Sm</t>
+          <t>Pettersborg 200 m NNV t N, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>579616.5892805457</v>
+        <v>579547.1134967525</v>
       </c>
       <c r="R2" t="n">
-        <v>6427821.143954458</v>
+        <v>6427974.619960002</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2013-07-13</t>
+          <t>1988-01-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2013-07-13</t>
+          <t>1989-12-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Thore Belinder. 073-3103409. Lst Kan kontakta honom om intresse finns. Finns på plats till 25-07. Ev längre. Medobservatör: Christine Strand</t>
+          <t>Smålands flora 2007: KOO: 7G5g 4219. SOM: Lycopodium annotinum. LEG: Birger Danielsson</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,29 +782,34 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Skogsmossekant</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Stefan Karlsson</t>
+          <t>Margareta Edqvist</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Stefan Karlsson</t>
+          <t>Via Margareta Edqvist</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Ekoxeuppropet 2013</t>
+          <t>Smålands flora (1978-2007)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74601266</v>
+        <v>16879685</v>
       </c>
       <c r="B3" t="n">
-        <v>95519</v>
+        <v>9302</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -826,37 +822,46 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>101246</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lucanus cervus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Pettersborg 200 m NNV t N, Sm</t>
+          <t>Överum, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>579547.1134967525</v>
+        <v>579616.5892805457</v>
       </c>
       <c r="R3" t="n">
-        <v>6427974.619960002</v>
+        <v>6427821.143954458</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -880,7 +885,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1988-01-01</t>
+          <t>2013-07-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -890,7 +895,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1989-12-31</t>
+          <t>2013-07-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -900,7 +905,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Smålands flora 2007: KOO: 7G5g 4219. SOM: Lycopodium annotinum. LEG: Birger Danielsson</t>
+          <t>Thore Belinder. 073-3103409. Lst Kan kontakta honom om intresse finns. Finns på plats till 25-07. Ev längre. Medobservatör: Christine Strand</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,25 +917,20 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Skogsmossekant</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Margareta Edqvist</t>
+          <t>Stefan Karlsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Via Margareta Edqvist</t>
+          <t>Via Stefan Karlsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Smålands flora (1978-2007)</t>
+          <t>Ekoxeuppropet 2013</t>
         </is>
       </c>
     </row>

--- a/artfynd/A 14927-2022.xlsx
+++ b/artfynd/A 14927-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74601266</v>
+        <v>16879685</v>
       </c>
       <c r="B2" t="n">
-        <v>95519</v>
+        <v>9302</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,46 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221945</v>
+        <v>101246</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lucanus cervus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Pettersborg 200 m NNV t N, Sm</t>
+          <t>Överum, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>579547.1134967525</v>
+        <v>579616.5892805457</v>
       </c>
       <c r="R2" t="n">
-        <v>6427974.619960002</v>
+        <v>6427821.143954458</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1988-01-01</t>
+          <t>2013-07-13</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1989-12-31</t>
+          <t>2013-07-13</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -770,7 +779,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Smålands flora 2007: KOO: 7G5g 4219. SOM: Lycopodium annotinum. LEG: Birger Danielsson</t>
+          <t>Thore Belinder. 073-3103409. Lst Kan kontakta honom om intresse finns. Finns på plats till 25-07. Ev längre. Medobservatör: Christine Strand</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,34 +791,29 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Skogsmossekant</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Margareta Edqvist</t>
+          <t>Stefan Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Margareta Edqvist</t>
+          <t>Via Stefan Karlsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Smålands flora (1978-2007)</t>
+          <t>Ekoxeuppropet 2013</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16879685</v>
+        <v>74601266</v>
       </c>
       <c r="B3" t="n">
-        <v>9302</v>
+        <v>95519</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,46 +826,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101246</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lucanus cervus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Överum, Sm</t>
+          <t>Pettersborg 200 m NNV t N, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>579616.5892805457</v>
+        <v>579547.1134967525</v>
       </c>
       <c r="R3" t="n">
-        <v>6427821.143954458</v>
+        <v>6427974.619960002</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -885,7 +880,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-07-13</t>
+          <t>1988-01-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -895,7 +890,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-07-13</t>
+          <t>1989-12-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -905,7 +900,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Thore Belinder. 073-3103409. Lst Kan kontakta honom om intresse finns. Finns på plats till 25-07. Ev längre. Medobservatör: Christine Strand</t>
+          <t>Smålands flora 2007: KOO: 7G5g 4219. SOM: Lycopodium annotinum. LEG: Birger Danielsson</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,20 +912,25 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Skogsmossekant</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Stefan Karlsson</t>
+          <t>Margareta Edqvist</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Via Stefan Karlsson</t>
+          <t>Via Margareta Edqvist</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Ekoxeuppropet 2013</t>
+          <t>Smålands flora (1978-2007)</t>
         </is>
       </c>
     </row>
